--- a/SMO/TemplateExcel/Template_SuaChuaThuongXuyen.xlsx
+++ b/SMO/TemplateExcel/Template_SuaChuaThuongXuyen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC2DDB-C94A-473C-9EB1-5DD34D4BFB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB23AF0F-AE35-4660-BCB0-19C4DDC38B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dòng tiền chi khác của dự án" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -376,7 +376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,7 +518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,23 +529,19 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:I3"/>
+      <selection activeCell="C2" sqref="C2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="20.77734375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
